--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H2">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I2">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J2">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N2">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q2">
-        <v>3.108447672310666</v>
+        <v>4.434135294615555</v>
       </c>
       <c r="R2">
-        <v>27.976029050796</v>
+        <v>39.90721765153999</v>
       </c>
       <c r="S2">
-        <v>0.007922264097772991</v>
+        <v>0.009857874550245754</v>
       </c>
       <c r="T2">
-        <v>0.007922264097772993</v>
+        <v>0.009857874550245753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H3">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I3">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J3">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q3">
-        <v>8.182807312674111</v>
+        <v>11.90921953350944</v>
       </c>
       <c r="R3">
-        <v>73.64526581406699</v>
+        <v>107.182975801585</v>
       </c>
       <c r="S3">
-        <v>0.02085489846576818</v>
+        <v>0.02647632161680603</v>
       </c>
       <c r="T3">
-        <v>0.02085489846576818</v>
+        <v>0.02647632161680602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H4">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I4">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J4">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N4">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q4">
-        <v>3.581511887837888</v>
+        <v>6.430301830289445</v>
       </c>
       <c r="R4">
-        <v>32.233606990541</v>
+        <v>57.872716472605</v>
       </c>
       <c r="S4">
-        <v>0.009127926874082997</v>
+        <v>0.0142957092085538</v>
       </c>
       <c r="T4">
-        <v>0.009127926874082998</v>
+        <v>0.0142957092085538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H5">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I5">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J5">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N5">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q5">
-        <v>1.635019315045778</v>
+        <v>2.634865057812222</v>
       </c>
       <c r="R5">
-        <v>14.715173835412</v>
+        <v>23.71378552031</v>
       </c>
       <c r="S5">
-        <v>0.004167049339171886</v>
+        <v>0.005857775523511829</v>
       </c>
       <c r="T5">
-        <v>0.004167049339171888</v>
+        <v>0.005857775523511828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H6">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I6">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J6">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N6">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q6">
-        <v>3.832585645354777</v>
+        <v>7.735687712677778</v>
       </c>
       <c r="R6">
-        <v>34.493270808193</v>
+        <v>69.6211894141</v>
       </c>
       <c r="S6">
-        <v>0.009767819458663786</v>
+        <v>0.01719781512396696</v>
       </c>
       <c r="T6">
-        <v>0.009767819458663788</v>
+        <v>0.01719781512396696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>12.702779</v>
       </c>
       <c r="I7">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J7">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N7">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O7">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P7">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q7">
-        <v>55.56803574288133</v>
+        <v>54.4639892317151</v>
       </c>
       <c r="R7">
-        <v>500.112321685932</v>
+        <v>490.1759030854359</v>
       </c>
       <c r="S7">
-        <v>0.1416220251899411</v>
+        <v>0.1210831735342286</v>
       </c>
       <c r="T7">
-        <v>0.1416220251899412</v>
+        <v>0.1210831735342286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>12.702779</v>
       </c>
       <c r="I8">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J8">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>103.640041</v>
       </c>
       <c r="O8">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P8">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q8">
         <v>146.2796151526599</v>
@@ -948,10 +948,10 @@
         <v>1316.516536373939</v>
       </c>
       <c r="S8">
-        <v>0.3728117264713431</v>
+        <v>0.3252057051989825</v>
       </c>
       <c r="T8">
-        <v>0.3728117264713431</v>
+        <v>0.3252057051989824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>12.702779</v>
       </c>
       <c r="I9">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J9">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N9">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O9">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P9">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q9">
-        <v>64.0247485488441</v>
+        <v>78.9826801331119</v>
       </c>
       <c r="R9">
-        <v>576.222736939597</v>
+        <v>710.8441211980071</v>
       </c>
       <c r="S9">
-        <v>0.1631750057482576</v>
+        <v>0.1755926016375444</v>
       </c>
       <c r="T9">
-        <v>0.1631750057482576</v>
+        <v>0.1755926016375444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>12.702779</v>
       </c>
       <c r="I10">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J10">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N10">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O10">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P10">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q10">
-        <v>29.22835489497822</v>
+        <v>32.36375360715044</v>
       </c>
       <c r="R10">
-        <v>263.055194054804</v>
+        <v>291.273782464354</v>
       </c>
       <c r="S10">
-        <v>0.07449208448451283</v>
+        <v>0.07195040336765673</v>
       </c>
       <c r="T10">
-        <v>0.07449208448451285</v>
+        <v>0.07195040336765672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>12.702779</v>
       </c>
       <c r="I11">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J11">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N11">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O11">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P11">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q11">
-        <v>68.51305814983121</v>
+        <v>95.01658932121556</v>
       </c>
       <c r="R11">
-        <v>616.617523348481</v>
+        <v>855.14930389094</v>
       </c>
       <c r="S11">
-        <v>0.17461401896644</v>
+        <v>0.2112388448900437</v>
       </c>
       <c r="T11">
-        <v>0.17461401896644</v>
+        <v>0.2112388448900437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H12">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I12">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J12">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N12">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O12">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P12">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q12">
-        <v>0.3501070256080001</v>
+        <v>0.3540070826159999</v>
       </c>
       <c r="R12">
-        <v>3.150963230472001</v>
+        <v>3.186063743544</v>
       </c>
       <c r="S12">
-        <v>0.0008922911407064352</v>
+        <v>0.0007870209586443345</v>
       </c>
       <c r="T12">
-        <v>0.0008922911407064354</v>
+        <v>0.0007870209586443344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H13">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I13">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J13">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>103.640041</v>
       </c>
       <c r="O13">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P13">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q13">
-        <v>0.9216363379326669</v>
+        <v>0.9507937361340001</v>
       </c>
       <c r="R13">
-        <v>8.294727041394001</v>
+        <v>8.557143625205999</v>
       </c>
       <c r="S13">
-        <v>0.002348904418191286</v>
+        <v>0.002113784255827736</v>
       </c>
       <c r="T13">
-        <v>0.002348904418191286</v>
+        <v>0.002113784255827735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H14">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I14">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J14">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N14">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O14">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P14">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q14">
-        <v>0.4033886384513333</v>
+        <v>0.5133745905420001</v>
       </c>
       <c r="R14">
-        <v>3.630497746062</v>
+        <v>4.620371314878001</v>
       </c>
       <c r="S14">
-        <v>0.0010280859337989</v>
+        <v>0.001141323386544432</v>
       </c>
       <c r="T14">
-        <v>0.0010280859337989</v>
+        <v>0.001141323386544432</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H15">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I15">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J15">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N15">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O15">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P15">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q15">
-        <v>0.1841535742426667</v>
+        <v>0.210359141124</v>
       </c>
       <c r="R15">
-        <v>1.657382168184</v>
+        <v>1.893232270116</v>
       </c>
       <c r="S15">
-        <v>0.0004693382046269954</v>
+        <v>0.0004676659339231161</v>
       </c>
       <c r="T15">
-        <v>0.0004693382046269955</v>
+        <v>0.000467665933923116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H16">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I16">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J16">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N16">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O16">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P16">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q16">
-        <v>0.4316672828806667</v>
+        <v>0.6175923956400001</v>
       </c>
       <c r="R16">
-        <v>3.885005545926</v>
+        <v>5.55833156076</v>
       </c>
       <c r="S16">
-        <v>0.001100157563471746</v>
+        <v>0.001373018177139927</v>
       </c>
       <c r="T16">
-        <v>0.001100157563471746</v>
+        <v>0.001373018177139927</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H17">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I17">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J17">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N17">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O17">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P17">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q17">
-        <v>0.9357972253306664</v>
+        <v>0.924368977090222</v>
       </c>
       <c r="R17">
-        <v>8.422175027975999</v>
+        <v>8.319320793811999</v>
       </c>
       <c r="S17">
-        <v>0.002384995194569832</v>
+        <v>0.002055037297883003</v>
       </c>
       <c r="T17">
-        <v>0.002384995194569833</v>
+        <v>0.002055037297883003</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H18">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I18">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J18">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>103.640041</v>
       </c>
       <c r="O18">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P18">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q18">
-        <v>2.463431650089111</v>
+        <v>2.482674151034778</v>
       </c>
       <c r="R18">
-        <v>22.170884850802</v>
+        <v>22.344067359313</v>
       </c>
       <c r="S18">
-        <v>0.006278360833499712</v>
+        <v>0.005519427961469236</v>
       </c>
       <c r="T18">
-        <v>0.006278360833499714</v>
+        <v>0.005519427961469236</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H19">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I19">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J19">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N19">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O19">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P19">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q19">
-        <v>1.078213063382889</v>
+        <v>1.340502968518778</v>
       </c>
       <c r="R19">
-        <v>9.703917570445999</v>
+        <v>12.064526716669</v>
       </c>
       <c r="S19">
-        <v>0.002747959606293927</v>
+        <v>0.002980177468634471</v>
       </c>
       <c r="T19">
-        <v>0.002747959606293927</v>
+        <v>0.002980177468634471</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H20">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I20">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J20">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N20">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O20">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P20">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q20">
-        <v>0.4922220669857777</v>
+        <v>0.5492812817908889</v>
       </c>
       <c r="R20">
-        <v>4.429998602872</v>
+        <v>4.943531536118</v>
       </c>
       <c r="S20">
-        <v>0.001254488934830398</v>
+        <v>0.001221150372941481</v>
       </c>
       <c r="T20">
-        <v>0.001254488934830398</v>
+        <v>0.001221150372941481</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H21">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I21">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J21">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N21">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O21">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P21">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q21">
-        <v>1.153798741639777</v>
+        <v>1.612632286331111</v>
       </c>
       <c r="R21">
-        <v>10.384188674758</v>
+        <v>14.51369057698</v>
       </c>
       <c r="S21">
-        <v>0.002940599074056061</v>
+        <v>0.003585169535451982</v>
       </c>
       <c r="T21">
-        <v>0.002940599074056062</v>
+        <v>0.003585169535451983</v>
       </c>
     </row>
   </sheetData>
